--- a/Main doc survey.xlsx
+++ b/Main doc survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Danielle/Documents/Pompeu Fabra BSM/Thesis/Thesis - R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEBB700-1B4D-7F4E-93BC-4633F7E3C37B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A6768D-0174-9842-AFC1-72A1BCF21C18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="29660" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="29780" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main doc" sheetId="1" r:id="rId1"/>
@@ -863,9 +863,9 @@
   </sheetPr>
   <dimension ref="A1:AA225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Main doc survey.xlsx
+++ b/Main doc survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Danielle/Documents/Pompeu Fabra BSM/Thesis/Thesis - R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A6768D-0174-9842-AFC1-72A1BCF21C18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F86E1E-FD08-EF46-A4E9-C166DC0EE15C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="29780" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main doc" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6095" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6098" uniqueCount="173">
   <si>
     <t>18-25</t>
   </si>
@@ -863,9 +863,9 @@
   </sheetPr>
   <dimension ref="A1:AA225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J139" sqref="J139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2406,7 +2406,9 @@
       <c r="E19" s="3">
         <v>100</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>61</v>
       </c>
@@ -11697,7 +11699,9 @@
       <c r="D131" s="15">
         <v>5</v>
       </c>
-      <c r="E131" s="15"/>
+      <c r="E131" s="15">
+        <v>200</v>
+      </c>
       <c r="F131" s="14" t="s">
         <v>99</v>
       </c>
@@ -12374,7 +12378,9 @@
       <c r="I139" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J139" s="10"/>
+      <c r="J139" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="K139" s="1" t="s">
         <v>126</v>
       </c>
@@ -18072,7 +18078,9 @@
       <c r="E207" s="12">
         <v>400</v>
       </c>
-      <c r="F207" s="1"/>
+      <c r="F207" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="G207" s="1" t="s">
         <v>51</v>
       </c>

--- a/Main doc survey.xlsx
+++ b/Main doc survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Danielle/Documents/Pompeu Fabra BSM/Thesis/Thesis - R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F86E1E-FD08-EF46-A4E9-C166DC0EE15C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEDDD62-0548-E844-AF93-41DB1BC432CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6098" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6168" uniqueCount="175">
   <si>
     <t>18-25</t>
   </si>
@@ -555,6 +555,12 @@
   <si>
     <t>I do not purchase coffee from the supermarket, Time-saving</t>
   </si>
+  <si>
+    <t>Time-saving (one store less to go to)</t>
+  </si>
+  <si>
+    <t>I am happy with my coffee now, This is usually more expensive</t>
+  </si>
 </sst>
 </file>
 
@@ -618,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -643,6 +649,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,11 +868,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA225"/>
+  <dimension ref="A1:AA232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J139" sqref="J139"/>
+    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E227" sqref="B227:E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17895,7 +17902,7 @@
     </row>
     <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="11">
-        <f t="shared" ref="A205:A225" si="1">A204+1</f>
+        <f t="shared" ref="A205:A232" si="1">A204+1</f>
         <v>204</v>
       </c>
       <c r="B205" s="12">
@@ -19656,6 +19663,440 @@
       <c r="AA225" s="2" t="s">
         <v>170</v>
       </c>
+    </row>
+    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="11">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="B226" s="14">
+        <v>4</v>
+      </c>
+      <c r="C226" s="14">
+        <v>6</v>
+      </c>
+      <c r="D226" s="14">
+        <v>20</v>
+      </c>
+      <c r="E226" s="14">
+        <v>150</v>
+      </c>
+      <c r="F226" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G226" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H226" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I226" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J226" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K226" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L226" s="14">
+        <v>4</v>
+      </c>
+      <c r="M226" s="14">
+        <v>3</v>
+      </c>
+      <c r="N226" s="14">
+        <v>4</v>
+      </c>
+      <c r="O226" s="14">
+        <v>3</v>
+      </c>
+      <c r="P226" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q226" s="14">
+        <v>3</v>
+      </c>
+      <c r="R226" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="S226" s="14">
+        <v>4</v>
+      </c>
+      <c r="T226" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="U226" s="14">
+        <v>8</v>
+      </c>
+      <c r="V226" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W226" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X226" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y226" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z226" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA226" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="11">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+      <c r="B227" s="15">
+        <v>10</v>
+      </c>
+      <c r="C227" s="15">
+        <v>5</v>
+      </c>
+      <c r="D227" s="15">
+        <v>30</v>
+      </c>
+      <c r="E227" s="15">
+        <v>160</v>
+      </c>
+      <c r="F227" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G227" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H227" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I227" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J227" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K227" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L227" s="14">
+        <v>8</v>
+      </c>
+      <c r="M227" s="14">
+        <v>1</v>
+      </c>
+      <c r="N227" s="14">
+        <v>5</v>
+      </c>
+      <c r="O227" s="14">
+        <v>5</v>
+      </c>
+      <c r="P227" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q227" s="14">
+        <v>4</v>
+      </c>
+      <c r="R227" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="S227" s="14">
+        <v>7</v>
+      </c>
+      <c r="T227" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U227" s="14">
+        <v>8</v>
+      </c>
+      <c r="V227" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W227" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X227" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y227" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z227" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA227" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="11">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="B228" s="15">
+        <v>18</v>
+      </c>
+      <c r="C228" s="15">
+        <v>25</v>
+      </c>
+      <c r="D228" s="15">
+        <v>25</v>
+      </c>
+      <c r="E228" s="15">
+        <v>200</v>
+      </c>
+      <c r="F228" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G228" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H228" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I228" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J228" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K228" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L228" s="14">
+        <v>6</v>
+      </c>
+      <c r="M228" s="14">
+        <v>5</v>
+      </c>
+      <c r="N228" s="14">
+        <v>3</v>
+      </c>
+      <c r="O228" s="14">
+        <v>3</v>
+      </c>
+      <c r="P228" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q228" s="14">
+        <v>3</v>
+      </c>
+      <c r="R228" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="S228" s="14">
+        <v>6</v>
+      </c>
+      <c r="T228" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U228" s="14">
+        <v>7</v>
+      </c>
+      <c r="V228" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W228" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X228" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y228" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z228" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA228" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="11">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+      <c r="B229" s="15">
+        <v>7</v>
+      </c>
+      <c r="C229" s="16">
+        <v>4</v>
+      </c>
+      <c r="D229" s="15">
+        <v>50</v>
+      </c>
+      <c r="E229" s="15">
+        <v>250</v>
+      </c>
+      <c r="F229" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G229" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H229" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I229" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J229" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K229" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L229" s="14">
+        <v>6</v>
+      </c>
+      <c r="M229" s="14">
+        <v>3</v>
+      </c>
+      <c r="N229" s="14">
+        <v>2</v>
+      </c>
+      <c r="O229" s="14">
+        <v>3</v>
+      </c>
+      <c r="P229" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q229" s="14">
+        <v>3</v>
+      </c>
+      <c r="R229" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S229" s="14">
+        <v>8</v>
+      </c>
+      <c r="T229" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="U229" s="14">
+        <v>6</v>
+      </c>
+      <c r="V229" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W229" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X229" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y229" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z229" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA229" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="11">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+      <c r="B230" s="15">
+        <v>30</v>
+      </c>
+      <c r="C230" s="15">
+        <v>4</v>
+      </c>
+      <c r="D230" s="15">
+        <v>40</v>
+      </c>
+      <c r="E230" s="15">
+        <v>400</v>
+      </c>
+      <c r="F230" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G230" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H230" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I230" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J230" t="s">
+        <v>49</v>
+      </c>
+      <c r="K230" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L230" s="14">
+        <v>4</v>
+      </c>
+      <c r="M230" s="14">
+        <v>3</v>
+      </c>
+      <c r="N230" s="14">
+        <v>2</v>
+      </c>
+      <c r="O230" s="14">
+        <v>1</v>
+      </c>
+      <c r="P230" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q230" s="14">
+        <v>1</v>
+      </c>
+      <c r="R230" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="S230" s="14">
+        <v>1</v>
+      </c>
+      <c r="T230" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U230" s="14">
+        <v>10</v>
+      </c>
+      <c r="V230" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W230" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="X230" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y230" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z230" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA230" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="11"/>
+      <c r="B231" s="18"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="18"/>
+    </row>
+    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="11"/>
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
+      <c r="D232" s="18"/>
+      <c r="E232" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Z225" xr:uid="{00E62A40-BA3A-A847-BB1A-AE0160036376}"/>
@@ -19667,8 +20108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F1A1E8-D5E2-9C48-BE5B-8A62BDF1EC6B}">
   <dimension ref="A1:Z225"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" zoomScaleNormal="248" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A209" zoomScaleNormal="248" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
